--- a/Resources/Datasets/variable_summary.xlsx
+++ b/Resources/Datasets/variable_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B6CD2F-807E-4E2F-8261-B8889513A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36FE644-CB84-4B13-8D56-DF122DAA5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{3C6F33E3-B1F2-463A-99F9-042D33658BAB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Variables</t>
   </si>
@@ -55,21 +55,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Midgrade</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Disael</t>
-  </si>
-  <si>
-    <t>Volumn</t>
-  </si>
-  <si>
     <t>InterestRate(%)</t>
   </si>
   <si>
@@ -82,54 +67,148 @@
     <t>WorkingPopulation</t>
   </si>
   <si>
-    <t>Gas Production</t>
-  </si>
-  <si>
-    <t>Gas Consumption</t>
-  </si>
-  <si>
-    <t>Total import</t>
-  </si>
-  <si>
-    <t>Total export</t>
-  </si>
-  <si>
-    <t>Import Price</t>
-  </si>
-  <si>
-    <t>Export Price</t>
-  </si>
-  <si>
-    <t>All grades</t>
-  </si>
-  <si>
-    <t>All Consumers</t>
-  </si>
-  <si>
-    <t>Commecial Consumers</t>
-  </si>
-  <si>
-    <t>Electric Consumers</t>
-  </si>
-  <si>
-    <t>Industrial Consumers</t>
-  </si>
-  <si>
-    <t>Residential Consumers</t>
-  </si>
-  <si>
-    <t>vehicle Consumers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Variables </t>
+  </si>
+  <si>
+    <t>Gas Production(mmcf)</t>
+  </si>
+  <si>
+    <t>Gas Consumption(mmcf)</t>
+  </si>
+  <si>
+    <t>Volumn(mmcf)</t>
+  </si>
+  <si>
+    <t>Total import(mmcf)</t>
+  </si>
+  <si>
+    <t>Total export(mmcf)</t>
+  </si>
+  <si>
+    <t>3.3M</t>
+  </si>
+  <si>
+    <t>1.4M</t>
+  </si>
+  <si>
+    <t>All grades($/Gal)</t>
+  </si>
+  <si>
+    <t>Regular($/Gal)</t>
+  </si>
+  <si>
+    <t>Midgrade($/Gal)</t>
+  </si>
+  <si>
+    <t>Premium($/Gal)</t>
+  </si>
+  <si>
+    <t>Diesel($/Gal)</t>
+  </si>
+  <si>
+    <t>3.6M</t>
+  </si>
+  <si>
+    <t>8.4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>2.1M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>6.9M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>4.7M</t>
+  </si>
+  <si>
+    <t>0.5M</t>
+  </si>
+  <si>
+    <t>207M</t>
+  </si>
+  <si>
+    <t>181M</t>
+  </si>
+  <si>
+    <t>200M</t>
+  </si>
+  <si>
+    <t>198M</t>
+  </si>
+  <si>
+    <t>0.4M</t>
+  </si>
+  <si>
+    <t>0,2M</t>
+  </si>
+  <si>
+    <t>0.3M</t>
+  </si>
+  <si>
+    <t>0.06M</t>
+  </si>
+  <si>
+    <t>0.6M</t>
+  </si>
+  <si>
+    <t>0.02M</t>
+  </si>
+  <si>
+    <t>0.1M</t>
+  </si>
+  <si>
+    <t>0.2M</t>
+  </si>
+  <si>
+    <t>All Consumers(mmcf)</t>
+  </si>
+  <si>
+    <t>Commecial Consumers(mmcf)</t>
+  </si>
+  <si>
+    <t>Electric Consumers(mmcf)</t>
+  </si>
+  <si>
+    <t>Industrial Consumers(mmcf)</t>
+  </si>
+  <si>
+    <t>Residential Consumers(mmcf)</t>
+  </si>
+  <si>
+    <t>vehicle Consumers(mmcf)</t>
+  </si>
+  <si>
+    <t>Import Price($/mcf)</t>
+  </si>
+  <si>
+    <t>Export Price($/mcf)</t>
+  </si>
+  <si>
+    <t>**mcf: Thousand cubic feet</t>
+  </si>
+  <si>
+    <t>**mmcf: Million cubic feet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -175,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -212,12 +291,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -248,26 +351,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -585,142 +689,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BC0033-ED9B-4E2C-99A9-1F8D75777013}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.15625" customWidth="1"/>
-    <col min="2" max="6" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.05078125" customWidth="1"/>
+    <col min="2" max="5" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3266272</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1400941</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1994746</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2130387</v>
-      </c>
-      <c r="F2" s="5">
-        <v>507150.7</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3591557</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1368369</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2068744</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2127122</v>
-      </c>
-      <c r="F3" s="5">
-        <v>474056.9</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8384087</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5041971</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7002317</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6906497</v>
-      </c>
-      <c r="F4" s="5">
-        <v>803170.7</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="18">
-        <v>426534</v>
-      </c>
-      <c r="C5" s="18">
-        <v>174225</v>
-      </c>
-      <c r="D5" s="18">
-        <v>282064.5</v>
-      </c>
-      <c r="E5" s="18">
-        <v>288559.97637799999</v>
-      </c>
-      <c r="F5" s="18">
-        <v>58264.662837999997</v>
-      </c>
-      <c r="H5" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="18">
-        <v>620886</v>
-      </c>
-      <c r="C6" s="18">
-        <v>23637</v>
-      </c>
-      <c r="D6" s="18">
-        <v>118918.5</v>
-      </c>
-      <c r="E6" s="18">
-        <v>168158.53149600001</v>
-      </c>
-      <c r="F6" s="18">
-        <v>146897.70607300001</v>
-      </c>
-      <c r="H6" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11">
         <v>11.99</v>
@@ -737,31 +842,31 @@
       <c r="F7" s="11">
         <v>2.161772</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="17">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14">
         <v>12.68</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>2.04</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>4.45</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>4.9555910000000001</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>1.9641090000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="11">
         <v>4.1139999999999999</v>
@@ -781,7 +886,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11">
         <v>4.0620000000000003</v>
@@ -801,7 +906,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11">
         <v>4.181</v>
@@ -821,7 +926,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11">
         <v>4.298</v>
@@ -841,35 +946,34 @@
     </row>
     <row r="13" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="17">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
         <v>4.7030000000000003</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>1.1519999999999999</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>2.8395000000000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>2.7983030000000002</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>0.84409999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
@@ -889,7 +993,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="11">
         <v>6.02</v>
@@ -909,7 +1013,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17" s="11">
         <v>3.8391000000000002</v>
@@ -929,7 +1033,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="11">
         <v>194.49</v>
@@ -949,22 +1053,22 @@
     </row>
     <row r="19" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="13">
-        <v>206538900</v>
-      </c>
-      <c r="C19" s="13">
-        <v>181476600</v>
-      </c>
-      <c r="D19" s="13">
-        <v>199573200</v>
-      </c>
-      <c r="E19" s="13">
-        <v>197785000</v>
-      </c>
-      <c r="F19" s="13">
-        <v>7884941</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -977,7 +1081,7 @@
     </row>
     <row r="21" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>3</v>
@@ -997,7 +1101,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5">
         <v>28291010</v>
@@ -1017,7 +1121,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B23" s="5">
         <v>3514566</v>
@@ -1037,7 +1141,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5">
         <v>11615990</v>
@@ -1057,7 +1161,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B25" s="5">
         <v>8417300</v>
@@ -1077,7 +1181,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5">
         <v>5087471</v>
@@ -1097,7 +1201,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="9" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B27" s="10">
         <v>53166</v>
@@ -1115,32 +1219,38 @@
         <v>12559.62053</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
+    <row r="28" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="19"/>
+    <row r="30" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="19"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="19"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="19"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" s="19"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="19"/>
+      <c r="D35" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
